--- a/uipath/dailymovement/global_dailymovement/dailymovement.xlsx
+++ b/uipath/dailymovement/global_dailymovement/dailymovement.xlsx
@@ -379,7 +379,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44056</x:v>
+        <x:v>44057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -409,7 +409,7 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0007562866</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>0.2</x:v>
@@ -417,7 +417,7 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0014224751</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>0.05</x:v>
@@ -425,7 +425,7 @@
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0090909091</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>0.1</x:v>
@@ -433,7 +433,7 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0112522686</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>0.1</x:v>
@@ -441,7 +441,7 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>-0.0070598307</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>0.1</x:v>
@@ -449,7 +449,7 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0019195393</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>0.05</x:v>
@@ -457,7 +457,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0003907395</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>0.2</x:v>
@@ -465,7 +465,7 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0009583134</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>0.1</x:v>
@@ -473,7 +473,7 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>-0.0154300722</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>0.05</x:v>
@@ -481,7 +481,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="n">
-        <x:v>-0.0086223055</x:v>
+        <x:v>0.0056882821</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
         <x:v>0.05</x:v>

--- a/uipath/dailymovement/global_dailymovement/dailymovement.xlsx
+++ b/uipath/dailymovement/global_dailymovement/dailymovement.xlsx
@@ -379,7 +379,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="1">
-        <x:v>44057</x:v>
+        <x:v>44060</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -409,7 +409,7 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="0" t="n">
-        <x:v>0.0007562866</x:v>
+        <x:v>-0.0285282449</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>0.2</x:v>
@@ -417,7 +417,7 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="n">
-        <x:v>0.0014224751</x:v>
+        <x:v>-0.0085227273</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>0.05</x:v>
@@ -425,7 +425,7 @@
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="n">
-        <x:v>0.0090909091</x:v>
+        <x:v>-0.0285285285</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>0.1</x:v>
@@ -433,7 +433,7 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="n">
-        <x:v>0.0112522686</x:v>
+        <x:v>0.0771715721</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>0.1</x:v>
@@ -441,7 +441,7 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="n">
-        <x:v>-0.0070598307</x:v>
+        <x:v>0.0067982994</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>0.1</x:v>
@@ -449,7 +449,7 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="n">
-        <x:v>0.0019195393</x:v>
+        <x:v>-0.0066256885</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>0.05</x:v>
@@ -457,7 +457,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="n">
-        <x:v>0.0003907395</x:v>
+        <x:v>-0.0263646128</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>0.2</x:v>
@@ -465,7 +465,7 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="n">
-        <x:v>0.0009583134</x:v>
+        <x:v>0.0066060316</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>0.1</x:v>
@@ -473,7 +473,7 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="n">
-        <x:v>-0.0154300722</x:v>
+        <x:v>-0.0170056686</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>0.05</x:v>
@@ -481,7 +481,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="n">
-        <x:v>0.0056882821</x:v>
+        <x:v>0.0226244344</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
         <x:v>0.05</x:v>
